--- a/myapp/app-server/data.xlsx
+++ b/myapp/app-server/data.xlsx
@@ -6,15 +6,15 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="users" r:id="rId6" sheetId="52"/>
-    <sheet name="boards" r:id="rId7" sheetId="53"/>
-    <sheet name="projects" r:id="rId5" sheetId="54"/>
+    <sheet name="users" r:id="rId6" sheetId="55"/>
+    <sheet name="boards" r:id="rId7" sheetId="56"/>
+    <sheet name="projects" r:id="rId5" sheetId="57"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1575" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1691" uniqueCount="74">
   <si>
     <t>no</t>
   </si>
@@ -278,7 +278,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/worksheets/sheet52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet55.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -427,7 +427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet56.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -576,7 +576,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet57.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:F6"/>
   <sheetViews>
